--- a/offers/downloadableOffers/newMillsSalesOfferTrespass.xlsx
+++ b/offers/downloadableOffers/newMillsSalesOfferTrespass.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200"/>
+    <workbookView xWindow="38400" yWindow="4420" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$51</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,11 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
     <t>New Mills</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>IMAGE</t>
   </si>
   <si>
+    <t>UNIT COST</t>
+  </si>
+  <si>
     <t>FAFOBEI10001-BLACK PRINT-36</t>
   </si>
   <si>
@@ -77,12 +86,6 @@
     <t>TRESPASS FLEUR - FEMALE FLIP FLOP-TEAL PRINT-UK 3</t>
   </si>
   <si>
-    <t>FAFOBOF30001-PUP-39</t>
-  </si>
-  <si>
-    <t>TRESPASS - FLORA - FEMALE WELLY BOOT - PURPLE PRINT - 39</t>
-  </si>
-  <si>
     <t>FAFOBOH10003-DARK BROWN-40</t>
   </si>
   <si>
@@ -101,12 +104,6 @@
     <t>TRESPASS - SCOUR - FEMALE WALKING BOOT - SPEARMINT - UK 5</t>
   </si>
   <si>
-    <t>FAFOBOK30011-AAS-37</t>
-  </si>
-  <si>
-    <t>TRESPASS - SAMIRA - FEMALE WELLY - AZALEA STRIPE - UK4</t>
-  </si>
-  <si>
     <t>FAFOCAJ10001-36-KHAKI</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>TRESPASS - KATANA - FS FEMALE CANVAS SHOE - BLUE - UK 4</t>
   </si>
   <si>
-    <t>FAFOCAM10004-BLUE-40</t>
-  </si>
-  <si>
     <t>TRESPASS - KATANA - FS FEMALE CANVAS SHOE - BLUE - UK 7</t>
   </si>
   <si>
@@ -167,12 +161,6 @@
     <t>TRESPASS - KATANA - FS FEMALE CANVAS SHOE - CERISE - UK 5</t>
   </si>
   <si>
-    <t>FAFOCAM10004-CERISE-39</t>
-  </si>
-  <si>
-    <t>TRESPASS - KATANA - FS FEMALE CANVAS SHOE - CERISE - UK 6</t>
-  </si>
-  <si>
     <t>FAFOCAM10004-CERISE-40</t>
   </si>
   <si>
@@ -185,24 +173,6 @@
     <t>TRESPASS - KATANA - FS FEMALE CANVAS SHOE - CERISE - UK 8</t>
   </si>
   <si>
-    <t>FAFOTEK30002-PAN-38</t>
-  </si>
-  <si>
-    <t>TRESPASS SHANNON - FEMALE TECHNICAL BOOT-PANSY-UK 5</t>
-  </si>
-  <si>
-    <t>FAFOTNK10001-36</t>
-  </si>
-  <si>
-    <t>Trespass LANE - FEMALE TRAINER-CORNFLOWER EU36</t>
-  </si>
-  <si>
-    <t>FASOCAG20001-FUCHSIA-6/9</t>
-  </si>
-  <si>
-    <t>TRESPASS - OCCO - FEMALE TRAINER SOCKS - FUCHSIA - UK 6-9</t>
-  </si>
-  <si>
     <t>UCFOBOJ20001-BLACK-28</t>
   </si>
   <si>
@@ -215,15 +185,6 @@
     <t>TRESPASS - GIZ GAZ -CHILDREN UNISEX BOOT - DAMSON - UK 10</t>
   </si>
   <si>
-    <t>UCFOBOL20001-CSE-32</t>
-  </si>
-  <si>
-    <t>TRESPASS - VAUSE - KIDS SNOW BOOT - COLBAT STRIPE - 32</t>
-  </si>
-  <si>
-    <t>MCFOCAJ10001-28-GRM</t>
-  </si>
-  <si>
     <t>TRESPASS BUMPER - BOYS SHOE GREY</t>
   </si>
   <si>
@@ -239,9 +200,6 @@
     <t>MCFOCAJ10001-34-GRE</t>
   </si>
   <si>
-    <t>MCFOCAJ10001-35-GRM</t>
-  </si>
-  <si>
     <t>MAFOBED10004-GREY MARL-43</t>
   </si>
   <si>
@@ -254,12 +212,6 @@
     <t>TRESPASS - SKINK - MALE FLIP FLOP - BROWN - UK 5</t>
   </si>
   <si>
-    <t>MAFOBEI10002-BLK-39</t>
-  </si>
-  <si>
-    <t>TRESPASS ELUDER - MALE FLIP FLOP-BLACK-UK 5</t>
-  </si>
-  <si>
     <t>MAFOBEI10002-BLK-40</t>
   </si>
   <si>
@@ -278,12 +230,6 @@
     <t>TRESPASS ELUDER - MALE FLIP FLOP-BLACK-UK 8</t>
   </si>
   <si>
-    <t>MAFOBEJ30003-NVT-40</t>
-  </si>
-  <si>
-    <t>TRESPASS TOFINO - MALE FLIP FLOP-NAVY TONE-UK 6</t>
-  </si>
-  <si>
     <t>MAFOBEL10001-PEAT-41</t>
   </si>
   <si>
@@ -308,12 +254,6 @@
     <t>Trespass BRAEBURN - MALE CASUAL BOOT-HERB EU40</t>
   </si>
   <si>
-    <t>MAFOCAK30001-42-HER</t>
-  </si>
-  <si>
-    <t>Trespass BRAEBURN - MALE CASUAL BOOT-HERB EU42</t>
-  </si>
-  <si>
     <t>MAFOCAK30001-43-HER</t>
   </si>
   <si>
@@ -344,56 +284,21 @@
     <t>TRESPASS - BRAEBURN - MALE CASUAL BOOT - HERB - UK 12</t>
   </si>
   <si>
-    <t>MAFOTEK30002-42</t>
-  </si>
-  <si>
-    <t>Trespass VINCENT - MALE TECHNICAL BOOT-BLACK EU42</t>
-  </si>
-  <si>
-    <t>MAFOTNJ20001-40</t>
-  </si>
-  <si>
-    <t>Trespass ROMERO - MALE TRAINER-FUDGE EU40</t>
-  </si>
-  <si>
-    <t>MAFOTNJ20001-41</t>
-  </si>
-  <si>
-    <t>Trespass ROMERO - MALE TRAINER-FUDGE EU41</t>
-  </si>
-  <si>
-    <t>MAFOTNK10002-40-FUM</t>
-  </si>
-  <si>
-    <t>Trespass FRONTIER - MALE TRAINER FUM EU40</t>
-  </si>
-  <si>
-    <t>MAFOTNK10002-43-BLR</t>
-  </si>
-  <si>
-    <t>Trespass FRONTIER - MALE TRAINER BLR EU43</t>
-  </si>
-  <si>
-    <t>FCACMIG10002-26/27</t>
-  </si>
-  <si>
-    <t>Trespass ALICE -FEMALE FLUFFY SLIPPER-PURPLE 26/27</t>
-  </si>
-  <si>
-    <t>FCACMIG10002-31/32</t>
-  </si>
-  <si>
-    <t>Trespass ALICE -FEMALE FLUFFY SLIPPER-PURPLE 31/32</t>
+    <t>MCFOCAJ10001-29-GRM</t>
+  </si>
+  <si>
+    <t>MCFOCAJ10001-34-GRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +310,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -473,6 +384,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -485,11 +407,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,7 +432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -507,14 +448,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,76 +491,15 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>97998</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="cid:b9d92fec-0aae-4e5a-ac2f-b02fc13df630@eurprd01.prod.exchangelabs.com">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01C7FF44-FDBA-42C9-93EF-EACE6B507561}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="289560" y="342900"/>
-          <a:ext cx="4041140" cy="517098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1282700</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>939800</xdr:rowOff>
@@ -626,7 +518,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -662,14 +554,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>279400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>876300</xdr:rowOff>
     </xdr:to>
@@ -687,7 +579,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -723,15 +615,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -748,7 +640,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -784,15 +676,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1358900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -809,7 +701,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -845,23 +737,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_ae512daf-2f90-4e28-b35b-5f50e88634ed.jpg">
+        <xdr:cNvPr id="75" name="Picture 74" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_11430093-8cb5-4c5c-a076-b73813731006.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98D7131F-1735-B842-B4E7-BA4184A75B1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9E758F2-D765-A84D-B05F-AE33747418FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -870,68 +762,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10731500" y="8788400"/>
-          <a:ext cx="685800" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_11430093-8cb5-4c5c-a076-b73813731006.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B9E758F2-D765-A84D-B05F-AE33747418FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -967,15 +798,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>469900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1282700</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -992,7 +823,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1028,15 +859,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1053,7 +884,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1089,15 +920,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>330200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1114,7 +945,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1150,23 +981,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1092200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_7f2d9114-48b5-4f85-a20a-8223e396bc22.jpg">
+        <xdr:cNvPr id="81" name="Picture 80" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_59a4d3fc-20a1-47aa-9779-bdc7a6a7514f.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25B834F1-9470-3E49-B1DF-63301033247B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D570F8F-A604-CF42-BAB5-A1B3E207174F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,129 +1006,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10909300" y="16802100"/>
-          <a:ext cx="990600" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1130300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_bd80238f-cb48-49e4-b7bb-530c921c09d3.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0164EC6-5338-4C45-B67D-5926B7E8C80A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11188700" y="18300700"/>
-          <a:ext cx="787400" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_59a4d3fc-20a1-47aa-9779-bdc7a6a7514f.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D570F8F-A604-CF42-BAB5-A1B3E207174F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1333,15 +1042,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1130300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1358,7 +1067,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1394,15 +1103,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1384300</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1419,7 +1128,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1455,15 +1164,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>673100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1480,7 +1189,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1516,15 +1225,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1541,7 +1250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1577,16 +1286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1602,7 +1311,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1638,23 +1347,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>558800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 86" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_bac6fb8c-dcda-47e2-9b0a-9afd15c9b43c.jpg">
+        <xdr:cNvPr id="88" name="Picture 87" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_10705f4c-3de6-4eaa-85f0-5df601541e4c.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29A4D92A-642B-E548-BD07-35296C1E8AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42E915EB-C7A4-7146-B704-C1C67C03744A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,68 +1372,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10960100" y="26225500"/>
-          <a:ext cx="1092200" cy="469900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>774700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_10705f4c-3de6-4eaa-85f0-5df601541e4c.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42E915EB-C7A4-7146-B704-C1C67C03744A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1760,15 +1408,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1422400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1785,7 +1433,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1821,15 +1469,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1282700</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1846,7 +1494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1882,305 +1530,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358141</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1079500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2034541</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_a6c81d58-1f46-4d56-8422-7c416b819e11.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72A14797-4D80-AA44-8300-6599B45A0552}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="11264900" y="30734000"/>
-          <a:ext cx="1092200" cy="977900"/>
+          <a:off x="358141" y="38101"/>
+          <a:ext cx="1676400" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_240a29df-063b-432b-8088-a0cc5b72ce4b.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD32A5C5-0EB7-5C43-8EE5-18C89877188B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11150600" y="32004000"/>
-          <a:ext cx="1092200" cy="698500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_237a460f-22fc-4468-9eb3-bde4e2358dfc.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A391A6DA-D5E3-1341-9AEE-8A30D9016720}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11087100" y="32969200"/>
-          <a:ext cx="1092200" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>698500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_4bf0f919-fca7-4c2b-a9f4-338c21f72399.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEA6EB75-DA79-C143-9FB7-CC579F0208F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11087100" y="33947100"/>
-          <a:ext cx="1092200" cy="698500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94" descr="https://s3-eu-west-1.amazonaws.com/images.linnlive.com/206a45a5f26383c387181e72d15a5e3a/tumbnail_132b1f88-7ce2-44d9-b93d-acae0e61ad09.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01E50F7D-89BA-9140-9B5D-A7A645A0C8EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10985500" y="34848800"/>
-          <a:ext cx="990600" cy="1092200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2485,946 +1872,1000 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A51" sqref="A1:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="15">
+        <f>SUM(E12:E50)</f>
+        <v>152</v>
+      </c>
+      <c r="F10" s="5">
+        <f>SUM(F12:F50)</f>
+        <v>462.54829166666673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="G11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5050985176981</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.79566666666666674</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" ref="F12:F28" si="0">SUM(D12*E12)</f>
+        <v>0.79566666666666674</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13">
+        <v>5050985177032</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1.0138333333333336</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0691666666666677</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13">
+        <v>5045273866316</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10.3125</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
+        <v>10.3125</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13">
+        <v>5045273866323</v>
+      </c>
+      <c r="D15" s="14">
+        <v>10.3125</v>
+      </c>
+      <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="11">
-        <f>SUM(D12:D67)</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10">
-        <v>5050985176981</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10">
-        <v>5050985177032</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10">
-        <v>5038231279396</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>41.25</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13">
+        <v>5045274015942</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6.9850000000000012</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="0"/>
+        <v>27.940000000000005</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="13">
+        <v>5050986703476</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2.4575833333333339</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4575833333333339</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5050986703483</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2.4575833333333339</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4575833333333339</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="13">
+        <v>5050986703506</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.85341666666666682</v>
+      </c>
+      <c r="E19" s="2">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10">
-        <v>5045273866316</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10">
-        <v>5045273866323</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="10">
-        <v>5045274015942</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="10">
-        <v>5045274175882</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="10">
-        <v>5050986703476</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="16">
+        <f>SUM(D19*E19)</f>
+        <v>14.508083333333335</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="10">
-        <v>5050986703483</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="13">
+        <v>5050986703520</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2.4575833333333339</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="0"/>
+        <v>7.3727500000000017</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5050986703438</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.85341666666666682</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="0"/>
+        <v>12.801250000000003</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14">
+        <v>0.85341666666666682</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="16">
+        <f t="shared" si="0"/>
+        <v>5.9739166666666677</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5045274437058</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.80208333333333348</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4062500000000004</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="10">
-        <v>5050986703506</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="13">
+        <v>5045274437096</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.80208333333333348</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="E21"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="10">
-        <v>5050986703520</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="10">
-        <v>5050986703438</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="16">
+        <f t="shared" si="0"/>
+        <v>0.80208333333333348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="10">
-        <v>5045274437058</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C25" s="13">
+        <v>5045274437102</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.80208333333333348</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="16">
+        <f t="shared" si="0"/>
+        <v>1.604166666666667</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:12" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="10">
-        <v>5045274437089</v>
-      </c>
-      <c r="D26" s="2">
+        <v>41</v>
+      </c>
+      <c r="C26" s="13">
+        <v>5045274437119</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.80208333333333348</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="0"/>
+        <v>4.0104166666666679</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5045274437133</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.80208333333333348</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4062500000000004</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5045274437140</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0.80208333333333348</v>
+      </c>
+      <c r="E28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="10">
-        <v>5045274437102</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="10">
-        <v>5045274437119</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="F28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.604166666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="13">
+        <v>5050986154353</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="16">
+        <f t="shared" ref="F29:F50" si="1">SUM(D29*E29)</f>
+        <v>14.666666666666668</v>
+      </c>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:12" ht="92" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="13">
+        <v>5050986162396</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E30" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="10">
-        <v>5045274437126</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="10">
-        <v>5045274437133</v>
-      </c>
-      <c r="D30" s="2">
-        <v>5</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="10">
-        <v>5045274437140</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="13">
+        <v>5050986701212</v>
+      </c>
+      <c r="D31" s="14">
+        <v>2.9768750000000006</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="16">
+        <f t="shared" si="1"/>
+        <v>8.9306250000000027</v>
+      </c>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="13">
+        <v>5050986701212</v>
+      </c>
+      <c r="D32" s="14">
+        <v>2.9768750000000006</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="16">
+        <f t="shared" si="1"/>
+        <v>8.9306250000000027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="10">
-        <v>5045274108514</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="13">
+        <v>5050986701168</v>
+      </c>
+      <c r="D33" s="14">
+        <v>2.9768750000000006</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="16">
+        <f t="shared" si="1"/>
+        <v>11.907500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="13">
+        <v>5050986701175</v>
+      </c>
+      <c r="D34" s="14">
+        <v>2.9768750000000006</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+      <c r="F34" s="16">
+        <f t="shared" si="1"/>
+        <v>17.861250000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="13">
+        <v>5050986701182</v>
+      </c>
+      <c r="D35" s="14">
+        <v>2.9768750000000006</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="16">
+        <f t="shared" si="1"/>
+        <v>5.9537500000000012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="13">
+        <v>5050986711051</v>
+      </c>
+      <c r="D36" s="14">
+        <v>2.9768750000000006</v>
+      </c>
+      <c r="E36" s="2">
         <v>1</v>
       </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="10">
-        <v>5045274092677</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="F36" s="16">
+        <f t="shared" si="1"/>
+        <v>2.9768750000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="13">
+        <v>5045274157581</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1.711875</v>
+      </c>
+      <c r="E37" s="2">
+        <v>10</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" si="1"/>
+        <v>17.118749999999999</v>
+      </c>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="13">
+        <v>5045273812627</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="E38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="103" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="10">
-        <v>5045273813969</v>
-      </c>
-      <c r="D34" s="2">
-        <v>8</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="10">
-        <v>5050986154353</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="F38" s="16">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="10">
-        <v>5050986162396</v>
-      </c>
-      <c r="D36" s="2">
-        <v>5</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="C39" s="13">
+        <v>5050985176240</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0.81125000000000014</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="16">
+        <f t="shared" si="1"/>
+        <v>0.81125000000000014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="10">
-        <v>5045274265194</v>
-      </c>
-      <c r="D37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="C40" s="13">
+        <v>5050985176257</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0.81125000000000014</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="1"/>
+        <v>0.81125000000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="10">
-        <v>5050986701274</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="10">
-        <v>5050986701212</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="10">
-        <v>5050986701168</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="10">
-        <v>5050986701175</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="13">
+        <v>5050985176264</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0.81125000000000014</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16">
+        <f t="shared" si="1"/>
+        <v>0.81125000000000014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="13">
+        <v>5045274255201</v>
+      </c>
+      <c r="D42" s="14">
+        <v>2.6125000000000003</v>
+      </c>
+      <c r="E42" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="F42" s="16">
+        <f t="shared" si="1"/>
+        <v>13.062500000000002</v>
+      </c>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="10">
-        <v>5050986701182</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="C43" s="13">
+        <v>5050985275813</v>
+      </c>
+      <c r="D43" s="14">
+        <v>7.1041666666666679</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16">
+        <f t="shared" si="1"/>
+        <v>7.1041666666666679</v>
+      </c>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="10">
-        <v>5050986711075</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="13">
+        <v>5050985266996</v>
+      </c>
+      <c r="D44" s="14">
+        <v>6.32</v>
+      </c>
+      <c r="E44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="F44" s="16">
+        <f t="shared" si="1"/>
+        <v>6.32</v>
+      </c>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="10">
-        <v>5045274157581</v>
-      </c>
-      <c r="D44" s="2">
-        <v>15</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="13">
+        <v>5045274109139</v>
+      </c>
+      <c r="D45" s="14">
+        <v>6.32</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="16">
+        <f t="shared" si="1"/>
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="10">
-        <v>5045273812627</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="13">
+        <v>5045274109160</v>
+      </c>
+      <c r="D46" s="14">
+        <v>6.32</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="16">
+        <f t="shared" si="1"/>
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="10">
-        <v>5050985176233</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="13">
+        <v>5045274109177</v>
+      </c>
+      <c r="D47" s="14">
+        <v>6.32</v>
+      </c>
+      <c r="E47" s="2">
+        <v>7</v>
+      </c>
+      <c r="F47" s="16">
+        <f t="shared" si="1"/>
+        <v>44.24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="10">
-        <v>5050985176240</v>
-      </c>
-      <c r="D47" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="13">
+        <v>5045274109153</v>
+      </c>
+      <c r="D48" s="14">
+        <v>6.32</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="F48" s="16">
+        <f t="shared" si="1"/>
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="10">
-        <v>5050985176257</v>
-      </c>
-      <c r="D48" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="13">
+        <v>5045274109184</v>
+      </c>
+      <c r="D49" s="14">
+        <v>6.315833333333333</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="16">
+        <f t="shared" si="1"/>
+        <v>25.263333333333332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="10">
-        <v>5050985176264</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="73" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="10">
-        <v>5045274042696</v>
-      </c>
-      <c r="D50" s="2">
-        <v>14</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="10">
-        <v>5045274255201</v>
-      </c>
-      <c r="D51" s="2">
-        <v>14</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="10">
-        <v>5050985275813</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="10">
-        <v>5050985266996</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="10">
-        <v>5045274109139</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="10">
-        <v>5045274109153</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="10">
-        <v>5045274109160</v>
-      </c>
-      <c r="D56" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="10">
-        <v>5045274109177</v>
-      </c>
-      <c r="D57" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="10">
-        <v>5045274109153</v>
-      </c>
-      <c r="D58" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="10">
-        <v>5045274109184</v>
-      </c>
-      <c r="D59" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="10">
+      <c r="C50" s="13">
         <v>5045274109191</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D50" s="14">
+        <v>6.315833333333333</v>
+      </c>
+      <c r="E50" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="10">
-        <v>5045274109290</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="10">
-        <v>5045274018370</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="10">
-        <v>5045274018387</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="10">
-        <v>5045274091816</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64"/>
-    </row>
-    <row r="65" spans="1:5" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="10">
-        <v>5045274089936</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="10">
-        <v>5045273895835</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2</v>
-      </c>
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="10">
-        <v>5045273895859</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2</v>
+      <c r="F50" s="16">
+        <f t="shared" si="1"/>
+        <v>50.526666666666664</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:E6"/>
+    <mergeCell ref="F1:G6"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>